--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/205.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/205.xlsx
@@ -479,13 +479,13 @@
         <v>-13.55364127155687</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.72794004188484</v>
+        <v>-14.67262506237855</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04377028223898233</v>
+        <v>-0.09005157278448397</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.21421471291956</v>
+        <v>-11.14047886331496</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.27333076883364</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.87911686279825</v>
+        <v>-14.82924828127412</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02866942938428801</v>
+        <v>-0.02390925882808388</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.91780497658288</v>
+        <v>-10.84900492514961</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.90548272868401</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.2432923586437</v>
+        <v>-15.18871054809655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06388772402853113</v>
+        <v>0.01552475733119504</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.55615629518588</v>
+        <v>-10.48128141523405</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.47712420318194</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.75600003022854</v>
+        <v>-15.69603728321343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1954522752850364</v>
+        <v>0.1399801881446431</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.37151554820902</v>
+        <v>-10.29341996175812</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.98722948776439</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.24313843436348</v>
+        <v>-16.17898615043902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1853581097940656</v>
+        <v>0.1325175755248592</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.2147221293765</v>
+        <v>-10.13335346721518</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.44294601756587</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.81948779006195</v>
+        <v>-16.74530680216073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3292032411161099</v>
+        <v>0.2603115435629473</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.06671364575079</v>
+        <v>-9.986012691034391</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.84945303935002</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.41022558658347</v>
+        <v>-17.32748223262376</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4750907716814635</v>
+        <v>0.4133212868741999</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.861099029621483</v>
+        <v>-9.780725382476128</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.22327955115165</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.14331599190308</v>
+        <v>-18.04958819585916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7572298979206603</v>
+        <v>0.6873824622600517</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.89862156956587</v>
+        <v>-9.81686013831929</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.579479992341604</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.62957721174763</v>
+        <v>-18.52948655652263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.794425130294004</v>
+        <v>0.7332317068117764</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.550601975427108</v>
+        <v>-9.472205266010851</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.929779556857103</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.23797652480264</v>
+        <v>-19.13006976478113</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9199279453347901</v>
+        <v>0.8587607064582459</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.505053853840742</v>
+        <v>-9.423554268650998</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.289299820637112</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.78633453702549</v>
+        <v>-19.67577003952711</v>
       </c>
       <c r="F12" t="n">
-        <v>1.082665269657445</v>
+        <v>1.013498633744606</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.014157958790223</v>
+        <v>-8.931571712464615</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.671794671836366</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.60199809636786</v>
+        <v>-20.4860395700987</v>
       </c>
       <c r="F13" t="n">
-        <v>1.270173230956646</v>
+        <v>1.195926781541217</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.527949108157044</v>
+        <v>-8.435033034889313</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.10586597546972</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.43431506492492</v>
+        <v>-21.3176495543023</v>
       </c>
       <c r="F14" t="n">
-        <v>1.595503864270697</v>
+        <v>1.512812879522355</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.078581997720478</v>
+        <v>-7.9730056676048</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.608251883266064</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.25937889770765</v>
+        <v>-22.13980689585417</v>
       </c>
       <c r="F15" t="n">
-        <v>1.710323360192635</v>
+        <v>1.624254561311127</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.644061558706433</v>
+        <v>-7.52738295578097</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.18781349400055</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.11500016532298</v>
+        <v>-22.9986619622714</v>
       </c>
       <c r="F16" t="n">
-        <v>1.990498641005572</v>
+        <v>1.900999658779533</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.060943482438796</v>
+        <v>-6.952657045634879</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.853053697772967</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.72662018487705</v>
+        <v>-23.61304445772508</v>
       </c>
       <c r="F17" t="n">
-        <v>2.181751000917507</v>
+        <v>2.090838049984561</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.976458852201137</v>
+        <v>-6.864493478298695</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.609580333879407</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.54071266787842</v>
+        <v>-24.42385077271317</v>
       </c>
       <c r="F18" t="n">
-        <v>2.603008937152885</v>
+        <v>2.502355312905695</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.5752321393136</v>
+        <v>-6.46358098067936</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.461095369333634</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.39384639795382</v>
+        <v>-25.27161665862346</v>
       </c>
       <c r="F19" t="n">
-        <v>2.868992161685392</v>
+        <v>2.766846014914245</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.269356668022354</v>
+        <v>-6.162942430524804</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.400323104375746</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.14708585734684</v>
+        <v>-26.02469901038238</v>
       </c>
       <c r="F20" t="n">
-        <v>3.090671033401498</v>
+        <v>2.988786732687185</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.163531584152682</v>
+        <v>-6.044155966841823</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.417273738126862</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.73136914856739</v>
+        <v>-26.60848479409495</v>
       </c>
       <c r="F21" t="n">
-        <v>3.406247901098463</v>
+        <v>3.308291291236668</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.829062523455106</v>
+        <v>-5.717607749363492</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.501753885138833</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.31828399265913</v>
+        <v>-27.19437843856504</v>
       </c>
       <c r="F22" t="n">
-        <v>3.607921734072411</v>
+        <v>3.518632228691839</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.690755436235111</v>
+        <v>-5.564519452235189</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.648936236667737</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.76258438189595</v>
+        <v>-27.64425614881243</v>
       </c>
       <c r="F23" t="n">
-        <v>3.78980000514967</v>
+        <v>3.701976837687371</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.489422003135048</v>
+        <v>-5.367990894278039</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.848303832518009</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.99277325045917</v>
+        <v>-27.87300486406306</v>
       </c>
       <c r="F24" t="n">
-        <v>3.926195616154772</v>
+        <v>3.837377433676502</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.327941539885199</v>
+        <v>-5.204756062447398</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.082146127677139</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.25808876754675</v>
+        <v>-28.14218261048895</v>
       </c>
       <c r="F25" t="n">
-        <v>4.241877222274471</v>
+        <v>4.152194947808647</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.032369710930391</v>
+        <v>-4.913282124282051</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.338465294026113</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.21756809025161</v>
+        <v>-28.10248674827284</v>
       </c>
       <c r="F26" t="n">
-        <v>4.406840238080219</v>
+        <v>4.308726520584324</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.038549277871686</v>
+        <v>-4.914905569834425</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.604990984331316</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.10754037716974</v>
+        <v>-27.99637363374065</v>
       </c>
       <c r="F27" t="n">
-        <v>4.356696718196408</v>
+        <v>4.264631644613391</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.84728382565691</v>
+        <v>-4.736876435792634</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.873779348894806</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.05813002624507</v>
+        <v>-27.94332362262598</v>
       </c>
       <c r="F28" t="n">
-        <v>4.331873712008496</v>
+        <v>4.248528112118067</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.758648935418424</v>
+        <v>-4.656856280824004</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.133038906732615</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.84121675276335</v>
+        <v>-27.73355874649584</v>
       </c>
       <c r="F29" t="n">
-        <v>4.318990886012237</v>
+        <v>4.23800190063332</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.636707226750588</v>
+        <v>-4.539653985784873</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.369811367828655</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.69399380730814</v>
+        <v>-27.5894648614198</v>
       </c>
       <c r="F30" t="n">
-        <v>4.218258707947997</v>
+        <v>4.144522858343396</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.590020074816993</v>
+        <v>-4.493569079781997</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.578092818372303</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.24737608046834</v>
+        <v>-27.14703667148935</v>
       </c>
       <c r="F31" t="n">
-        <v>4.071153593218362</v>
+        <v>4.001528726706064</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.676416181269543</v>
+        <v>-4.590020074816993</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.755208757214317</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.86896925143393</v>
+        <v>-26.77321214844955</v>
       </c>
       <c r="F32" t="n">
-        <v>3.983356610361747</v>
+        <v>3.917659434701966</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.756043567152921</v>
+        <v>-4.670668660322026</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.899127378684913</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.44925620693388</v>
+        <v>-26.35357765776655</v>
       </c>
       <c r="F33" t="n">
-        <v>3.84950090610794</v>
+        <v>3.785139145338015</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.682491009788103</v>
+        <v>-4.619150448639833</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.004595192314202</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.96141081844548</v>
+        <v>-25.86887442196016</v>
       </c>
       <c r="F34" t="n">
-        <v>3.717687601097442</v>
+        <v>3.65835328461874</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.498229939593651</v>
+        <v>-4.445101374661927</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.070149422732417</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.55207997009892</v>
+        <v>-25.46485904856734</v>
       </c>
       <c r="F35" t="n">
-        <v>3.479067289504143</v>
+        <v>3.418240450501484</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.50019378501991</v>
+        <v>-4.456557139648437</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.094283231723548</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.86332010220139</v>
+        <v>-24.77553621164762</v>
       </c>
       <c r="F36" t="n">
-        <v>3.257571710027821</v>
+        <v>3.20666883657919</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.767604070562165</v>
+        <v>-4.728759208030763</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.080873578538965</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.38246600343048</v>
+        <v>-24.29965718795656</v>
       </c>
       <c r="F37" t="n">
-        <v>3.128219757951568</v>
+        <v>3.074803162357326</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.75792885876213</v>
+        <v>-4.727646362289217</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.029697900411845</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.96562017325276</v>
+        <v>-23.88704017159672</v>
       </c>
       <c r="F38" t="n">
-        <v>3.054667200586751</v>
+        <v>3.002821681333515</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.903502174059281</v>
+        <v>-4.869396725156586</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.93772546050354</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.46502288179652</v>
+        <v>-23.38879949465199</v>
       </c>
       <c r="F39" t="n">
-        <v>3.026963887773658</v>
+        <v>2.973887692053301</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.772029268922668</v>
+        <v>-4.744299771503893</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.807276313747662</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.08093399332881</v>
+        <v>-23.00715886681568</v>
       </c>
       <c r="F40" t="n">
-        <v>3.121018991388619</v>
+        <v>3.057049999703945</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.755388952010835</v>
+        <v>-4.734598375098174</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.642309829370485</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.5499101900684</v>
+        <v>-22.47767995529059</v>
       </c>
       <c r="F41" t="n">
-        <v>3.135263416880417</v>
+        <v>3.078180976490491</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.683276547958608</v>
+        <v>-4.66281327861699</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.44911630234899</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.87142777990163</v>
+        <v>-21.80516763521965</v>
       </c>
       <c r="F42" t="n">
-        <v>3.229161412861276</v>
+        <v>3.175194940547681</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.711372629856951</v>
+        <v>-4.689233545751593</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.230565158525842</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.20792296418579</v>
+        <v>-21.14284112675957</v>
       </c>
       <c r="F43" t="n">
-        <v>3.347725307395947</v>
+        <v>3.292973296911849</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.756737459203532</v>
+        <v>-4.729544746201268</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.990716930917392</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.917313118008</v>
+        <v>-20.85587094077178</v>
       </c>
       <c r="F44" t="n">
-        <v>3.252910850216167</v>
+        <v>3.202610222698255</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.806920255995869</v>
+        <v>-4.783026803309719</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.73436201535633</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.42919279115992</v>
+        <v>-20.37267331979219</v>
       </c>
       <c r="F45" t="n">
-        <v>3.381660556361701</v>
+        <v>3.3262801153412</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.75352984500731</v>
+        <v>-4.733276052511159</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.473324530656118</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.10231726611055</v>
+        <v>-20.04327098029436</v>
       </c>
       <c r="F46" t="n">
-        <v>3.409311499963426</v>
+        <v>3.355266473832781</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.724085255916267</v>
+        <v>-4.716910673959002</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.215294981510691</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.55659080675888</v>
+        <v>-19.50386810321525</v>
       </c>
       <c r="F47" t="n">
-        <v>3.416145682046807</v>
+        <v>3.364640562667457</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.992713125622803</v>
+        <v>-4.989780449786257</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.963227040767753</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.08086889070192</v>
+        <v>-19.03009694028171</v>
       </c>
       <c r="F48" t="n">
-        <v>3.344347493262782</v>
+        <v>3.296560587890482</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107624267664633</v>
+        <v>-5.105817529872475</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.72157137067672</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.6971858636223</v>
+        <v>-18.63787773174928</v>
       </c>
       <c r="F49" t="n">
-        <v>3.363017117115083</v>
+        <v>3.316225226758754</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.39735692955203</v>
+        <v>-5.391897439267031</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.493832910206276</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.18158479310944</v>
+        <v>-18.12506532174171</v>
       </c>
       <c r="F50" t="n">
-        <v>3.50779180193889</v>
+        <v>3.451861484199036</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.306391609407718</v>
+        <v>-5.318868574015883</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.286392604262548</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.51775266982256</v>
+        <v>-17.45864092249217</v>
       </c>
       <c r="F51" t="n">
-        <v>3.526461425791191</v>
+        <v>3.466472494170402</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.519102253677241</v>
+        <v>-5.5319850796735</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.099594431679038</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.12489193845089</v>
+        <v>-17.06745600588424</v>
       </c>
       <c r="F52" t="n">
-        <v>3.353250259195156</v>
+        <v>3.298602987133791</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816585558846941</v>
+        <v>-5.814359867363848</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.931513886548971</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.73623383629141</v>
+        <v>-16.67535462807738</v>
       </c>
       <c r="F53" t="n">
-        <v>3.386478523807456</v>
+        <v>3.335339988907674</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845585009641364</v>
+        <v>-5.846291993994818</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.780643276952441</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.54262486186796</v>
+        <v>-16.47366770280059</v>
       </c>
       <c r="F54" t="n">
-        <v>3.120547668486316</v>
+        <v>3.071687194280995</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.020092314218731</v>
+        <v>-6.026703927153803</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.649309980530274</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.254345445596</v>
+        <v>-16.18054413447719</v>
       </c>
       <c r="F55" t="n">
-        <v>2.973809138236251</v>
+        <v>2.923456141506972</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.159669354814373</v>
+        <v>-6.173625749643652</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.537390818512467</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.92833401253418</v>
+        <v>-15.84658567359044</v>
       </c>
       <c r="F56" t="n">
-        <v>2.920156881190857</v>
+        <v>2.869699146038845</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.474683253489143</v>
+        <v>-6.476987498789287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.44040295128447</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.38140306132107</v>
+        <v>-15.30032242982226</v>
       </c>
       <c r="F57" t="n">
-        <v>2.960140774069489</v>
+        <v>2.901408703521505</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.731776804392118</v>
+        <v>-6.73504988010255</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.355144501551321</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.18145741232223</v>
+        <v>-15.09544098265209</v>
       </c>
       <c r="F58" t="n">
-        <v>2.802823663123308</v>
+        <v>2.741996824120649</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708446320728163</v>
+        <v>-6.709768643315177</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.278635480883739</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.83834743174912</v>
+        <v>-14.74909720327707</v>
       </c>
       <c r="F59" t="n">
-        <v>2.932070876776828</v>
+        <v>2.863493394491867</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.817282634251431</v>
+        <v>-6.821393617343733</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.21319857288769</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.78529742063444</v>
+        <v>-14.69015565588362</v>
       </c>
       <c r="F60" t="n">
-        <v>2.751004328475756</v>
+        <v>2.682453030796478</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823763324158086</v>
+        <v>-6.823527662706935</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.157406798219801</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.44040688687485</v>
+        <v>-14.3468885676764</v>
       </c>
       <c r="F61" t="n">
-        <v>2.637336955203891</v>
+        <v>2.568000119354109</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.23459978733145</v>
+        <v>-7.226364728844004</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.107897878223409</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.23814390027303</v>
+        <v>-14.13484563085181</v>
       </c>
       <c r="F62" t="n">
-        <v>2.592613648696554</v>
+        <v>2.519898998713608</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176103378234617</v>
+        <v>-7.177766100695517</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.0646387276864</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.91958198752815</v>
+        <v>-13.81540653381653</v>
       </c>
       <c r="F63" t="n">
-        <v>2.520003737136342</v>
+        <v>2.447681856238647</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.380945548496264</v>
+        <v>-7.374255381744142</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.029348447588656</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.73482340982571</v>
+        <v>-13.62480878904669</v>
       </c>
       <c r="F64" t="n">
-        <v>2.432809000210446</v>
+        <v>2.357659181898938</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.389861406731479</v>
+        <v>-7.400518541244645</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.003726008821646</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.54622878739064</v>
+        <v>-13.43389682900863</v>
       </c>
       <c r="F65" t="n">
-        <v>2.182588908299377</v>
+        <v>2.124642375921898</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.74234547613927</v>
+        <v>-7.741167168883515</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.985572335201196</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.3316590361176</v>
+        <v>-13.21720612467523</v>
       </c>
       <c r="F66" t="n">
-        <v>2.116210932891826</v>
+        <v>2.058002554457512</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.782722138103153</v>
+        <v>-7.789530135580851</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.973230735808723</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.16244102188829</v>
+        <v>-13.04684908009869</v>
       </c>
       <c r="F67" t="n">
-        <v>2.401963534715339</v>
+        <v>2.320424672617069</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.866185568719157</v>
+        <v>-7.861223585942143</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.964669876486664</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.11454937809325</v>
+        <v>-12.99474171478862</v>
       </c>
       <c r="F68" t="n">
-        <v>2.104244568094488</v>
+        <v>2.03849502322334</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.760871084660312</v>
+        <v>-7.767626712926643</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.962036643423046</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.97465812222941</v>
+        <v>-12.85397327463438</v>
       </c>
       <c r="F69" t="n">
-        <v>2.171198604827075</v>
+        <v>2.087800635725281</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.833179873255165</v>
+        <v>-7.83996168612718</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.964565525042037</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.95563500620038</v>
+        <v>-12.82689839235769</v>
       </c>
       <c r="F70" t="n">
-        <v>2.167506575425709</v>
+        <v>2.089109866009453</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.740591107558479</v>
+        <v>-7.7507638268665</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.968391924884757</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.64790042790561</v>
+        <v>-12.52313078182396</v>
       </c>
       <c r="F71" t="n">
-        <v>2.123778283934344</v>
+        <v>2.043627205937297</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.442322264218276</v>
+        <v>-7.467721331731224</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.972819259942473</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.57942768404338</v>
+        <v>-12.45588871442886</v>
       </c>
       <c r="F72" t="n">
-        <v>2.130481542989307</v>
+        <v>2.054808032564131</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.5101665775441</v>
+        <v>-7.529137324361761</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.976496281209001</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.25001225224271</v>
+        <v>-12.15637610231869</v>
       </c>
       <c r="F73" t="n">
-        <v>2.106732105634416</v>
+        <v>2.030744379941039</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.236943309540119</v>
+        <v>-7.271415342922383</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.979529258652677</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.45217050042181</v>
+        <v>-12.3578797353557</v>
       </c>
       <c r="F74" t="n">
-        <v>2.129460343367653</v>
+        <v>2.055881601397152</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.189208773379185</v>
+        <v>-7.217121563037746</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.978260771915335</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.58516211268806</v>
+        <v>-12.49043930162817</v>
       </c>
       <c r="F75" t="n">
-        <v>2.061458922407728</v>
+        <v>1.987880180437227</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.119950491346454</v>
+        <v>-7.14184082169782</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.968365746099038</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.84002997210794</v>
+        <v>-12.75346366571845</v>
       </c>
       <c r="F76" t="n">
-        <v>2.039647145873412</v>
+        <v>1.97075544832025</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.766013176323232</v>
+        <v>-6.803535716267619</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.946384928798922</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.41386560566079</v>
+        <v>-13.33112225170109</v>
       </c>
       <c r="F77" t="n">
-        <v>2.033467578932117</v>
+        <v>1.962612035952696</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.714508056943882</v>
+        <v>-6.74020824742219</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.911594202817136</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.90426399320333</v>
+        <v>-13.82540905318761</v>
       </c>
       <c r="F78" t="n">
-        <v>2.085051252128518</v>
+        <v>2.011891463848953</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.737393402311219</v>
+        <v>-6.747330460168089</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.862671915402438</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.39247596617129</v>
+        <v>-14.31432801050903</v>
       </c>
       <c r="F79" t="n">
-        <v>2.129355604944919</v>
+        <v>2.057714523794994</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.644568975163381</v>
+        <v>-6.646362620652697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.796764785994621</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.94040193240037</v>
+        <v>-14.86327517635976</v>
       </c>
       <c r="F80" t="n">
-        <v>2.014090970726363</v>
+        <v>1.952530962764567</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.288864199256525</v>
+        <v>-6.299429687649798</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.714065103342584</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.7119051542576</v>
+        <v>-15.63604835159264</v>
       </c>
       <c r="F81" t="n">
-        <v>2.114508933522402</v>
+        <v>2.049178342342189</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.233379019813291</v>
+        <v>-6.238026787322103</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.616192367143278</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.43979791534905</v>
+        <v>-16.36653338864675</v>
       </c>
       <c r="F82" t="n">
-        <v>2.083035037490892</v>
+        <v>2.024119674703125</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.131992226606964</v>
+        <v>-6.138250347365309</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.509644686208075</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.31674654429354</v>
+        <v>-17.24267029481506</v>
       </c>
       <c r="F83" t="n">
-        <v>2.065255690231828</v>
+        <v>2.003748051481399</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.835058798156616</v>
+        <v>-5.844969671407803</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.399917818744625</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.36970809264221</v>
+        <v>-18.29737311944167</v>
       </c>
       <c r="F84" t="n">
-        <v>2.074106086952835</v>
+        <v>2.02006106082219</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.727440068797629</v>
+        <v>-5.729417006526729</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.292429396136335</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.16831238138181</v>
+        <v>-19.09731282307113</v>
       </c>
       <c r="F85" t="n">
-        <v>2.102202168851179</v>
+        <v>2.044543667136218</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.593361795395512</v>
+        <v>-5.588098689653138</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.197480599195478</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.31966258558604</v>
+        <v>-20.24236562960849</v>
       </c>
       <c r="F86" t="n">
-        <v>2.089528819700389</v>
+        <v>2.032708225367297</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253145213750418</v>
+        <v>-5.252124014128763</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.127938675266283</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.38593900592474</v>
+        <v>-21.30796125019942</v>
       </c>
       <c r="F87" t="n">
-        <v>1.902858765783058</v>
+        <v>1.866697825334211</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.887830687557735</v>
+        <v>-4.896013376833814</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.097045853171242</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.72691812448853</v>
+        <v>-22.65103513721789</v>
       </c>
       <c r="F88" t="n">
-        <v>1.999139560881112</v>
+        <v>1.958631975888811</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661975371235119</v>
+        <v>-4.661778986692493</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.113578128521963</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.10327264533067</v>
+        <v>-24.03631860859808</v>
       </c>
       <c r="F89" t="n">
-        <v>1.869316285902556</v>
+        <v>1.821241349867738</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.274966899233696</v>
+        <v>-4.279444466805566</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.185922647584534</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.57133874757909</v>
+        <v>-25.50641401778698</v>
       </c>
       <c r="F90" t="n">
-        <v>1.651591289644651</v>
+        <v>1.610324351087531</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.16554143208255</v>
+        <v>-4.161731571955608</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.3215269122844</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.2141347235532</v>
+        <v>-27.15032283950263</v>
       </c>
       <c r="F91" t="n">
-        <v>1.444601981716962</v>
+        <v>1.407446026252144</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.060907747771475</v>
+        <v>-4.063578577551187</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.527921892007341</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.802113227529</v>
+        <v>-28.74944289319673</v>
       </c>
       <c r="F92" t="n">
-        <v>1.319753781818263</v>
+        <v>1.286577886417329</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.789792340525012</v>
+        <v>-3.794950707844652</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.806390147355034</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.64867780493173</v>
+        <v>-30.60060286889691</v>
       </c>
       <c r="F93" t="n">
-        <v>1.180111279708412</v>
+        <v>1.148558829859852</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.777773606516307</v>
+        <v>-3.788247448789688</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.148507984796413</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.72272114420944</v>
+        <v>-32.68128400571538</v>
       </c>
       <c r="F94" t="n">
-        <v>1.065173953060899</v>
+        <v>1.035965025421008</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.769420717303286</v>
+        <v>-3.784411404057062</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.549705141501525</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.75005114694788</v>
+        <v>-34.71498995993774</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6613418719078585</v>
+        <v>0.6314259599145144</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.753709953893215</v>
+        <v>-3.770612116861883</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.005361088863163</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.71783735636215</v>
+        <v>-36.68776433673471</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4409329535674002</v>
+        <v>0.4050993206895959</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.968960504914033</v>
+        <v>-3.982065900058601</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.501251366923426</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.80374232201447</v>
+        <v>-38.77840871601573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0558883269922365</v>
+        <v>0.0257498458505831</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.960568338792487</v>
+        <v>-3.983008545863205</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.034389552144671</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.0192349011942</v>
+        <v>-41.00666629046614</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1505903811246253</v>
+        <v>-0.186306183276854</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.160369972460068</v>
+        <v>-4.183464794672873</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.575586330884994</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39557951308738</v>
+        <v>-43.3877110390795</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.07161761038333367</v>
+        <v>-0.1068882742389437</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.489850865774947</v>
+        <v>-4.511976857577464</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.141028221047066</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79605323911785</v>
+        <v>-45.79641982359742</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3476164465897609</v>
+        <v>-0.3699650075405873</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.669542722277637</v>
+        <v>-4.698044665564074</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.683998276733038</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19444528899649</v>
+        <v>-48.19527010407552</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2783712568598717</v>
+        <v>-0.3101331835538992</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.942045913625323</v>
+        <v>-4.978913838427624</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.263402201241806</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40611491574644</v>
+        <v>-50.41480820483334</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4263535558799015</v>
+        <v>-0.4557588680624182</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.302686487703509</v>
+        <v>-5.33545652171635</v>
       </c>
     </row>
   </sheetData>
